--- a/総合演習資料/4.テスト仕様/結合テスト仕様書.xlsx
+++ b/総合演習資料/4.テスト仕様/結合テスト仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="6705" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="select一覧" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="194">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -310,31 +310,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社員情報管理画面の一覧表にある「名前」リンクをクリック</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>削除確認画面に遷移する</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -579,10 +554,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>employeeViewer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>詳細画面への遷移</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
@@ -689,16 +660,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>employeeViewer
-EmployeeSystemLogic
-EmployeeSystemDAO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employeeSystemMain</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>削除削除画面に遷移する</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -817,16 +778,6 @@
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全項目未入力で「検索」ボタンをクリックする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EmployeeSystem (searchメソッド)
-EmployeeSystemLogic.java
-EmployeeSystemDAO</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -957,67 +908,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社員情報管理画面に遷移して、下記を表示されない：
-上右「ユーザー名」の色は青い
-メニューに「新規登録」リンク
-一覧表に「修正」・「削除」リンク</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社員情報管理画面に遷移して、下記を表示される：
 上右「ユーザー名」
 一覧</t>
@@ -1057,10 +947,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社員情報管理画面への遷移</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -1071,18 +957,6 @@
     <rPh sb="4" eb="6">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employeeSystemMain
-EmployeeSystemLogic.java
-EmployeeSystemDAO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employeeSystemMain
-EmployeeSystemLogic.java
-EmployeeSystemDAO</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1134,13 +1008,6 @@
     </rPh>
     <rPh sb="51" eb="53">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>異常</t>
-    <rPh sb="0" eb="2">
-      <t>イジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1423,10 +1290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>registerUser</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規登録画面の前画面への遷移</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
@@ -1545,33 +1408,6 @@
     <t>EmployeeSystemLogic（add1メソッド）</t>
   </si>
   <si>
-    <t>サニタイジング対応</t>
-    <rPh sb="7" eb="9">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前に『 &lt;b&gt;あああ&lt;/b&gt; 』とHTMLタグデータを入力し、登録ボタンをクリック</t>
-    <rPh sb="28" eb="30">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブラウザでタグが無効かされてそのまま表示されている</t>
-    <rPh sb="8" eb="10">
-      <t>ムコウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>特殊文字対応</t>
     <rPh sb="0" eb="2">
       <t>トクシュ</t>
@@ -1650,11 +1486,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EmployeeSystemLogic（add1メソッド）
-EmployeeSystemDAO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社員ID重複対応</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -1757,10 +1588,6 @@
     <rPh sb="43" eb="45">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード未入力対応</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2100,168 +1927,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理者フラグの特別対応</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トクベツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部署を「本社システム部」または「本社人事部」で入力し、新規登録を正常に完了する</t>
-    <rPh sb="23" eb="25">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録した社員の詳細画面を開き、管理者権限がありになっている</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録内容確認画面遷移後に、別の画面で同じ社員IDの新規登録を正常完了させてから、登録ボタンをクリック</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・新規登録画面に遷移し、メッセージエリアに「社員IDが重複しています」と表示される
-・社員情報管理画面の一覧に登録したい社員情報が表示されない</t>
-    <rPh sb="1" eb="3">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベースが正常に起動していない状態で、登録内容確認画面の登録ボタンをクリック</t>
-    <rPh sb="7" eb="9">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・新規登録画面に遷移し、メッセージエリアに「データベースでエラーが発生しています」と表示される
-・社員情報管理画面の一覧に登録したい社員情報が表示されない</t>
-    <rPh sb="1" eb="3">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>updateUser</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2299,33 +1964,6 @@
     <rPh sb="5" eb="7">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>旧パスワードと新パスワード以外修正不可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一般社員でログインし、修正画面を表示</t>
-    <rPh sb="0" eb="2">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>旧パスワードと新パスワード以外修正できない</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2377,44 +2015,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>既存の情報（一般社員）</t>
-    <rPh sb="0" eb="2">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>旧パスワードと新パスワード以外既存の情報が入力されている</t>
-    <rPh sb="0" eb="1">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>修正画面の前画面への遷移（社員情報管理画面）</t>
     <rPh sb="5" eb="6">
       <t>マエ</t>
@@ -2465,71 +2065,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>修正画面の前画面への遷移（詳細画面）</t>
-    <rPh sb="5" eb="6">
-      <t>マエ</t>
-    </rPh>
+    <t>詳細画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateUser、
+EmployeeSystemLogic（update1メソッド）</t>
+  </si>
+  <si>
+    <t>修正内容確認画面への遷移</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
     <rPh sb="10" eb="12">
       <t>センイ</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細画面の修正ボタンをクリックし、遷移した修正画面の戻るボタンをクリック</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細画面に遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>updateUser、
-EmployeeSystemLogic（update1メソッド）</t>
-  </si>
-  <si>
-    <t>修正内容確認画面への遷移</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2563,13 +2122,6 @@
   </si>
   <si>
     <t>EmployeeSystemLogic（update1メソッド）</t>
-  </si>
-  <si>
-    <t>名前に『 &lt;b&gt;あああ&lt;/b&gt; 』とHTMLタグデータを入力し、修正ボタンをクリック</t>
-    <rPh sb="28" eb="30">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>名前に『 "&lt;&gt;',.\&amp;%$?/()@# 』など特殊文字のデータを入力し、修正ボタンをクリック</t>
@@ -2850,46 +2402,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EmployeeSystemLogic（update2メソッド）
-EmployeeSystemDAO</t>
-  </si>
-  <si>
-    <t>データベースが正常に起動していない状態で、修正内容確認画面の修正ボタンをクリック</t>
-    <rPh sb="7" eb="9">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・修正画面に遷移し、メッセージエリアに「データベースでエラーが発生しています」と表示される
-・修正画面で入力した社員情報が反映されていない</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>confirmDeleteUser</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3072,97 +2584,141 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EmployeeSystemLogic（deleteメソッド）
+    <t>employeeSystemMain
+EmployeeSystemLogic.java
 EmployeeSystemDAO</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>存在しない社員ID対応</t>
-    <rPh sb="0" eb="2">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
+    <t>ログインする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理画面に遷移して、下記を表示されない：
+上右「ユーザー名」の色は黒い
+メニューに「個人情報」リンクのみ
+一覧表に「氏名リンクのみ</t>
+    <rPh sb="0" eb="2">
       <t>シャイン</t>
     </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
     <rPh sb="9" eb="11">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除内容確認画面遷移後に、別の画面で同じ社員IDの削除を正常完了させてから、削除ボタンをクリック</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employeeSystemMain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理画面の一覧表にある「氏名」リンクをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
+      <t>ジョウホウ</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>カクニン</t>
+      <t>カンリ</t>
     </rPh>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員情報管理画面に遷移せず、メッセージエリアに「社員IDが存在しません」と表示される</t>
-    <rPh sb="29" eb="31">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベースが正常に起動していない状態で、削除内容確認画面の削除ボタンをクリック</t>
-    <rPh sb="7" eb="9">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員情報管理画面に遷移せず、メッセージエリアに「データベースでエラーが発生しています」と表示される</t>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmployeeSystem (searchメソッド)
+EmployeeSystemLogic.java
+EmployeeSystemDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全項目未入力で「検索」ボタンをクリックする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employeeViewer
+EmployeeSystemLogic
+EmployeeSystemDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employeeViewer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registerUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmployeeSystemLogic（add1メソッド）
+EmployeeSystemDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード未入力対応</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3403,7 +2959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3461,6 +3017,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3476,22 +3038,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3512,26 +3074,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3815,8 +3374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3828,7 +3387,7 @@
     <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="30" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="20" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="14" width="2.875" style="1" customWidth="1"/>
@@ -3836,17 +3395,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
@@ -3854,34 +3413,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="19">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="21">
         <v>1</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="20"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="11" t="s">
         <v>17</v>
       </c>
@@ -3920,82 +3479,82 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" ht="60" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" ht="60" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>20</v>
@@ -4003,45 +3562,45 @@
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>22</v>
@@ -4049,22 +3608,22 @@
       <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="B12" s="15">
         <v>7</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>25</v>
@@ -4072,55 +3631,55 @@
       <c r="G12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="15"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B13" s="15">
         <v>8</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B14" s="15">
         <v>9</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
@@ -4129,78 +3688,92 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10" ht="48" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>10</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="17" spans="2:10" ht="48" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>11</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="18" spans="2:10" ht="48" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>12</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I18" s="12">
+        <v>43039</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
@@ -4209,7 +3782,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="13"/>
       <c r="J19" s="3"/>
     </row>
@@ -4220,7 +3793,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="13"/>
       <c r="J20" s="3"/>
     </row>
@@ -4242,8 +3815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D4"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4263,17 +3836,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
@@ -4281,34 +3854,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="19">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="21">
         <v>2</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="20"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="11" t="s">
         <v>17</v>
       </c>
@@ -4347,59 +3920,59 @@
         <v>1</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="15"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="B7" s="15">
         <v>2</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="15"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>25</v>
@@ -4407,78 +3980,78 @@
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="2:10" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="B11" s="15">
         <v>6</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="F11" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
@@ -4595,13 +4168,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J51"/>
+  <dimension ref="B2:J51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.125" style="1" customWidth="1"/>
@@ -4617,19 +4190,18 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
@@ -4637,39 +4209,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="19">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="21">
         <v>1</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="42">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="19">
         <v>43034</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -4703,18 +4275,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="12"/>
       <c r="J6" s="3"/>
@@ -4724,18 +4298,20 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="12"/>
       <c r="J7" s="3"/>
@@ -4745,18 +4321,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="12"/>
       <c r="J8" s="3"/>
@@ -4766,18 +4344,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="12"/>
       <c r="J9" s="3"/>
@@ -4787,18 +4367,20 @@
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="F10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="12"/>
       <c r="J10" s="3"/>
@@ -4808,18 +4390,20 @@
         <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="12"/>
       <c r="J11" s="3"/>
@@ -4829,18 +4413,20 @@
         <v>7</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="12"/>
       <c r="J12" s="3"/>
@@ -4850,23 +4436,25 @@
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="12"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>9</v>
       </c>
@@ -4879,7 +4467,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>10</v>
       </c>
@@ -4892,7 +4480,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>11</v>
       </c>
@@ -4905,7 +4493,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>12</v>
       </c>
@@ -4918,7 +4506,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="8"/>
@@ -4929,7 +4517,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="8"/>
@@ -4940,7 +4528,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
@@ -4951,7 +4539,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="8"/>
@@ -4962,7 +4550,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="8"/>
@@ -4973,7 +4561,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="8"/>
@@ -4984,7 +4572,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="8"/>
@@ -4995,7 +4583,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="8"/>
@@ -5006,7 +4594,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="8"/>
@@ -5017,7 +4605,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="8"/>
@@ -5028,7 +4616,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="8"/>
@@ -5039,7 +4627,7 @@
       <c r="I28" s="12"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="8"/>
@@ -5050,7 +4638,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="8"/>
@@ -5061,7 +4649,7 @@
       <c r="I30" s="12"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="8"/>
@@ -5072,7 +4660,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="8"/>
@@ -5083,7 +4671,7 @@
       <c r="I32" s="12"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="8"/>
@@ -5094,7 +4682,7 @@
       <c r="I33" s="12"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="8"/>
@@ -5105,7 +4693,7 @@
       <c r="I34" s="12"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="8"/>
@@ -5116,7 +4704,7 @@
       <c r="I35" s="12"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="8"/>
@@ -5127,7 +4715,7 @@
       <c r="I36" s="12"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="8"/>
@@ -5138,7 +4726,7 @@
       <c r="I37" s="12"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="8"/>
@@ -5149,7 +4737,7 @@
       <c r="I38" s="12"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="8"/>
@@ -5160,7 +4748,7 @@
       <c r="I39" s="12"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="8"/>
@@ -5171,7 +4759,7 @@
       <c r="I40" s="12"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="8"/>
@@ -5182,7 +4770,7 @@
       <c r="I41" s="12"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="8"/>
@@ -5193,7 +4781,7 @@
       <c r="I42" s="12"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="8"/>
@@ -5204,7 +4792,7 @@
       <c r="I43" s="12"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="8"/>
@@ -5215,7 +4803,7 @@
       <c r="I44" s="12"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="8"/>
@@ -5226,7 +4814,7 @@
       <c r="I45" s="12"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="8"/>
@@ -5237,7 +4825,7 @@
       <c r="I46" s="12"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="8"/>
@@ -5248,7 +4836,7 @@
       <c r="I47" s="12"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="8"/>
@@ -5259,7 +4847,7 @@
       <c r="I48" s="12"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="8"/>
@@ -5270,7 +4858,7 @@
       <c r="I49" s="12"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="8"/>
@@ -5281,7 +4869,7 @@
       <c r="I50" s="12"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="8"/>
@@ -5308,13 +4896,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J54"/>
+  <dimension ref="B2:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.125" style="1" customWidth="1"/>
@@ -5330,19 +4918,18 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
@@ -5350,39 +4937,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="19">
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="21">
         <v>1</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="42">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="19">
         <v>43034</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -5416,16 +5003,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>13</v>
@@ -5439,16 +5026,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>13</v>
@@ -5462,16 +5049,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
@@ -5485,19 +5072,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="13"/>
@@ -5507,17 +5094,17 @@
       <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>113</v>
+      <c r="C10" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
@@ -5530,22 +5117,22 @@
       <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>123</v>
+      <c r="C11" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="13"/>
       <c r="J11" s="3"/>
     </row>
@@ -5554,22 +5141,22 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="13"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.15">
@@ -5577,16 +5164,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>14</v>
@@ -5600,16 +5187,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>14</v>
@@ -5618,44 +5205,44 @@
       <c r="I14" s="12"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="12"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10" ht="48" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>11</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>140</v>
+      <c r="C16" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>13</v>
@@ -5664,21 +5251,21 @@
       <c r="I16" s="12"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="2:10" ht="48" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>13</v>
@@ -5687,21 +5274,21 @@
       <c r="I17" s="12"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>13</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>148</v>
+      <c r="C18" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>
@@ -5710,21 +5297,21 @@
       <c r="I18" s="12"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>14</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>148</v>
+      <c r="C19" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>13</v>
@@ -5733,67 +5320,67 @@
       <c r="I19" s="12"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:10" ht="48" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>15</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>148</v>
+      <c r="C20" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="12"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="2:10" ht="60" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>16</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>158</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="12"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>13</v>
@@ -5802,70 +5389,70 @@
       <c r="I22" s="12"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="12"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="12"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>20</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="12"/>
@@ -5876,19 +5463,19 @@
         <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="12"/>
@@ -5899,19 +5486,19 @@
         <v>22</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="12"/>
@@ -5921,17 +5508,17 @@
       <c r="B28" s="3">
         <v>23</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>176</v>
+      <c r="C28" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>13</v>
@@ -5940,21 +5527,21 @@
       <c r="I28" s="12"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="48" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>24</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>180</v>
+      <c r="C29" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>13</v>
@@ -5968,16 +5555,16 @@
         <v>25</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>13</v>
@@ -5991,442 +5578,189 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="12"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="48" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>27</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>180</v>
+      <c r="C32" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="12"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>28</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="12"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>29</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="12"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>30</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="12"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>31</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="12"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="2:10" ht="48" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>32</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="3"/>
       <c r="I37" s="12"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="2:10" ht="60" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>33</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="3"/>
       <c r="I38" s="12"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>34</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="3"/>
       <c r="I39" s="12"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>35</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="3"/>
       <c r="I40" s="12"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="2:10" ht="48" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>36</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="3"/>
       <c r="I41" s="12"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>37</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="3"/>
       <c r="I42" s="12"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>38</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="3"/>
       <c r="I43" s="12"/>
       <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="3">
-        <v>39</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="3">
-        <v>40</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="3">
-        <v>41</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="3">
-        <v>42</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="3">
-        <v>43</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="3">
-        <v>44</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="3">
-        <v>45</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="3">
-        <v>46</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="3">
-        <v>47</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="3">
-        <v>48</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="3">
-        <v>49</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
